--- a/Demand.xlsx
+++ b/Demand.xlsx
@@ -81,7 +81,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -581,7 +581,7 @@
     <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -34946,7 +34946,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35109,7 +35109,7 @@
         <v>-0.03</v>
       </c>
       <c r="G8" s="8">
-        <v>-2.2199066578108804E-2</v>
+        <v>-3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -35130,7 +35130,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="8">
-        <v>3.5243733904060776E-3</v>
+        <v>-3.1E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -35164,14 +35164,14 @@
         <v>Offset</v>
       </c>
       <c r="E11" s="3">
-        <f t="shared" ref="E11:F11" si="4">E5/2</f>
+        <f t="shared" ref="E11" si="4">E5/2</f>
         <v>-6.4999999999999997E-3</v>
       </c>
       <c r="F11" s="3">
         <v>-0.03</v>
       </c>
       <c r="G11" s="8">
-        <v>5.8196703666688714E-3</v>
+        <v>-2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -35192,7 +35192,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="8">
-        <v>-0.14974648657519599</v>
+        <v>-1.6E-2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -35205,7 +35205,7 @@
         <v>UFS</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" ref="E13:F13" si="6">E7/2</f>
+        <f t="shared" ref="E13" si="6">E7/2</f>
         <v>-6.4999999999999997E-3</v>
       </c>
       <c r="F13" s="3">
@@ -35233,7 +35233,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
       <c r="G14" s="8">
-        <v>-3.2269702985862327E-2</v>
+        <v>-3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="8">
-        <v>-4.0880125426093344E-2</v>
+        <v>-4.1000000000000002E-2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">

--- a/Demand.xlsx
+++ b/Demand.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11775" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11775"/>
   </bookViews>
   <sheets>
     <sheet name="demand" sheetId="1" r:id="rId1"/>
@@ -219,7 +219,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -411,6 +411,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -572,7 +578,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -582,6 +588,11 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -905,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K973"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A940" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A507" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I965" sqref="I965"/>
     </sheetView>
   </sheetViews>
@@ -34945,8 +34956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35093,252 +35104,276 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="6">
         <f>A2+1</f>
         <v>2023</v>
       </c>
-      <c r="B8" t="str">
+      <c r="B8" s="6" t="str">
         <f>B2</f>
         <v>Cutsize</v>
       </c>
-      <c r="E8" s="3">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="9">
         <f>E2/2</f>
         <v>-6.4999999999999997E-3</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="9">
         <v>-0.03</v>
       </c>
-      <c r="G8" s="8">
-        <v>-3.4000000000000002E-2</v>
+      <c r="G8" s="10">
+        <v>-3.7999999999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="6">
         <f t="shared" ref="A9:A19" si="0">A3+1</f>
         <v>2023</v>
       </c>
-      <c r="B9" t="str">
+      <c r="B9" s="6" t="str">
         <f t="shared" ref="B9:B19" si="1">B3</f>
         <v>Envelope</v>
       </c>
-      <c r="E9" s="3">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="9">
         <f t="shared" ref="E9:F9" si="2">E3/2</f>
         <v>-6.4999999999999997E-3</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G9" s="8">
-        <v>-3.1E-2</v>
+      <c r="G9" s="10">
+        <v>-3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="B10" t="str">
+      <c r="B10" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Forms</v>
       </c>
-      <c r="E10" s="3">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="9">
         <f t="shared" ref="E10:F10" si="3">E4/2</f>
         <v>-6.4999999999999997E-3</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G10" s="8">
-        <v>-8.7024785865247339E-2</v>
+      <c r="G10" s="10">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="6">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="B11" t="str">
+      <c r="B11" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Offset</v>
       </c>
-      <c r="E11" s="3">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="9">
         <f t="shared" ref="E11" si="4">E5/2</f>
         <v>-6.4999999999999997E-3</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="9">
         <v>-0.03</v>
       </c>
-      <c r="G11" s="8">
-        <v>-2.1999999999999999E-2</v>
+      <c r="G11" s="10">
+        <v>-2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="B12" t="str">
+      <c r="B12" s="6" t="str">
         <f t="shared" si="1"/>
         <v>Other UFS</v>
       </c>
-      <c r="E12" s="3">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="9">
         <f t="shared" ref="E12:F12" si="5">E6/2</f>
         <v>-6.4999999999999997E-3</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G12" s="8">
-        <v>-1.6E-2</v>
+      <c r="G12" s="10">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="B13" t="str">
+      <c r="B13" s="6" t="str">
         <f t="shared" si="1"/>
         <v>UFS</v>
       </c>
-      <c r="E13" s="3">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="9">
         <f t="shared" ref="E13" si="6">E7/2</f>
         <v>-6.4999999999999997E-3</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="9">
         <v>-0.03</v>
       </c>
-      <c r="G13" s="8">
-        <v>-2.9749038090171209E-2</v>
+      <c r="G13" s="10">
+        <v>-3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="11">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="B14" t="str">
+      <c r="B14" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Cutsize</v>
       </c>
-      <c r="E14" s="3">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12">
         <f t="shared" ref="E14:F14" si="7">E8/2</f>
         <v>-3.2499999999999999E-3</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="12">
         <f t="shared" si="7"/>
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="G14" s="8">
-        <v>-3.2000000000000001E-2</v>
+      <c r="G14" s="13">
+        <v>-2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="11">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="B15" t="str">
+      <c r="B15" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Envelope</v>
       </c>
-      <c r="E15" s="3">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12">
         <f t="shared" ref="E15:F15" si="8">E9/2</f>
         <v>-3.2499999999999999E-3</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="12">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G15" s="8">
-        <v>-4.1000000000000002E-2</v>
+      <c r="G15" s="13">
+        <v>-3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="11">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="B16" t="str">
+      <c r="B16" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Forms</v>
       </c>
-      <c r="E16" s="3">
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12">
         <f t="shared" ref="E16:F16" si="9">E10/2</f>
         <v>-3.2499999999999999E-3</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="12">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="G16" s="8">
-        <v>-5.5491164153990802E-2</v>
+      <c r="G16" s="13">
+        <v>-4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="11">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="B17" t="str">
+      <c r="B17" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Offset</v>
       </c>
-      <c r="E17" s="3">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12">
         <f t="shared" ref="E17:F17" si="10">E11/2</f>
         <v>-3.2499999999999999E-3</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="12">
         <f t="shared" si="10"/>
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="G17" s="8">
-        <v>-2.8808773815729011E-2</v>
+      <c r="G17" s="13">
+        <v>-2.3E-2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="11">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="B18" t="str">
+      <c r="B18" s="11" t="str">
         <f t="shared" si="1"/>
         <v>Other UFS</v>
       </c>
-      <c r="E18" s="3">
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="12">
         <f t="shared" ref="E18:F18" si="11">E12/2</f>
         <v>-3.2499999999999999E-3</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="12">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G18" s="8">
-        <v>-4.1742119541140647E-2</v>
+      <c r="G18" s="13">
+        <v>-3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="11">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="B19" t="str">
+      <c r="B19" s="11" t="str">
         <f t="shared" si="1"/>
         <v>UFS</v>
       </c>
-      <c r="E19" s="3">
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12">
         <f t="shared" ref="E19:F19" si="12">E13/2</f>
         <v>-3.2499999999999999E-3</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="12">
         <f t="shared" si="12"/>
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="G19" s="8">
-        <v>-3.4345333641449788E-2</v>
+      <c r="G19" s="13">
+        <v>-2.7E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Demand.xlsx
+++ b/Demand.xlsx
@@ -602,7 +602,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -614,6 +614,7 @@
     <xf numFmtId="164" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -36237,10 +36238,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36250,7 +36251,7 @@
     <col min="4" max="8" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -36276,7 +36277,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>2023</v>
       </c>
@@ -36286,16 +36287,17 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4">
-        <v>-9.8000000000000004E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F2" s="4">
-        <v>-0.03</v>
+        <v>0.12</v>
       </c>
       <c r="G2" s="5">
-        <v>-3.7999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-5.6999999999999995E-2</v>
+      </c>
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2023</v>
       </c>
@@ -36305,16 +36307,17 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4">
-        <v>-9.8000000000000004E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F3" s="4">
         <v>0</v>
       </c>
       <c r="G3" s="5">
-        <v>-3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-5.4000000000000006E-2</v>
+      </c>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2023</v>
       </c>
@@ -36324,16 +36327,17 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="4">
-        <v>-9.8000000000000004E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F4" s="4">
         <v>0</v>
       </c>
       <c r="G4" s="5">
-        <v>-0.09</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.109</v>
+      </c>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2023</v>
       </c>
@@ -36343,16 +36347,17 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="4">
-        <v>-9.8000000000000004E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F5" s="4">
-        <v>-0.03</v>
+        <v>0.12</v>
       </c>
       <c r="G5" s="5">
-        <v>-2.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-4.4999999999999998E-2</v>
+      </c>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2023</v>
       </c>
@@ -36362,16 +36367,17 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="4">
-        <v>-9.8000000000000004E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
       </c>
       <c r="G6" s="5">
-        <v>-0.02</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-3.9E-2</v>
+      </c>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2023</v>
       </c>
@@ -36381,16 +36387,17 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="4">
-        <v>-9.8000000000000004E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F7" s="4">
-        <v>-0.03</v>
+        <v>0.12</v>
       </c>
       <c r="G7" s="5">
-        <v>-3.5999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-5.4999999999999993E-2</v>
+      </c>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>2024</v>
       </c>
@@ -36409,7 +36416,7 @@
         <v>-2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>2024</v>
       </c>
@@ -36428,7 +36435,7 @@
         <v>-3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>2024</v>
       </c>
@@ -36447,7 +36454,7 @@
         <v>-4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>2024</v>
       </c>
@@ -36466,7 +36473,7 @@
         <v>-2.3E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>2024</v>
       </c>
@@ -36485,7 +36492,7 @@
         <v>-3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>2024</v>
       </c>
